--- a/biology/Zoologie/Astrapia/Astrapia.xlsx
+++ b/biology/Zoologie/Astrapia/Astrapia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astrapia est un genre d'oiseaux traditionnellement classé dans la famille des Paradiséidés (famille des paradisiers ou oiseaux de paradis).
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre est endémique de la chaîne Centrale, ainsi que des montagnes de la péninsule de Doberai et de Huon[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est endémique de la chaîne Centrale, ainsi que des montagnes de la péninsule de Doberai et de Huon.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'après la classification de référence du Congrès ornithologique international (ordre phylogénique) :
 Paradisier à gorge noire — Astrapia nigra (Gmelin, 1788)
@@ -577,7 +593,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ (en) Bruce M. Beehler et Thane K. Pratt, Birds of New Guinea: Distribution, Taxonomy, and Systematics, Princeton University Press, 29 mars 2016 (ISBN 978-1-4008-8071-3, lire en ligne), p. 430
